--- a/江西省100所高校.xlsx
+++ b/江西省100所高校.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\chuwen\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Project\Jiangxi-University-Health-Check-in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F953DA-32C0-4E2D-8FE4-C837AA1C318B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F85C186-549A-4DE2-A74B-5ECFAEFCFF24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{264FAA22-E425-418B-9E7D-0A87B28408E7}"/>
   </bookViews>
@@ -1131,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0270E478-4F21-4501-BD1A-BB8E6A8B982B}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
     <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>226</v>
       </c>
@@ -1155,12 +1155,8 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1198,7 +1194,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1212,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1234,7 +1230,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1248,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1266,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1284,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1306,7 +1302,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1324,7 +1320,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1342,7 +1338,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1360,7 +1356,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1378,7 +1374,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +1392,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1414,7 +1410,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -3044,7 +3040,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
